--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed2/result_data_KNN.xlsx
@@ -468,13 +468,13 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.722</v>
+        <v>-12.309</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.756</v>
+        <v>17.087</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.616</v>
+        <v>5.414</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.044</v>
+        <v>-7.818000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.762</v>
+        <v>-7.610999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.514</v>
+        <v>5.63</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.106</v>
+        <v>5.542</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.472</v>
+        <v>-12.302</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.364</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="20">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.668000000000001</v>
+        <v>9.407</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.746</v>
+        <v>7.997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -842,13 +842,13 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.546</v>
+        <v>-11.158</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.412000000000001</v>
+        <v>-7.35</v>
       </c>
       <c r="E24" t="n">
-        <v>16.904</v>
+        <v>17.187</v>
       </c>
     </row>
     <row r="25">
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.262</v>
+        <v>5.586</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.258</v>
+        <v>-13.54</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.029999999999999</v>
+        <v>-8.354000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.4</v>
+        <v>6.083</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.726</v>
+        <v>-12.879</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.402</v>
+        <v>16.787</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.843999999999999</v>
+        <v>5.656000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -944,13 +944,13 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.806</v>
+        <v>-12.341</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.458</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.152</v>
+        <v>-12.286</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.828</v>
+        <v>17.176</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.392</v>
+        <v>17.413</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.614</v>
+        <v>-12.702</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.942</v>
+        <v>9.556000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.49</v>
+        <v>-8.062999999999999</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1148,13 +1148,13 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.266</v>
+        <v>-12.67</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.286</v>
+        <v>16.501</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.032</v>
+        <v>-11.374</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.459999999999999</v>
+        <v>-8.233000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.12</v>
+        <v>-11.889</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.48</v>
+        <v>-11.221</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,13 +1332,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.399999999999999</v>
+        <v>5.631</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.791999999999998</v>
+        <v>-7.878</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.292</v>
+        <v>-13.879</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.042</v>
+        <v>16.377</v>
       </c>
     </row>
     <row r="56">
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.868</v>
+        <v>-12.362</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.358000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.656000000000001</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.628</v>
+        <v>-13.691</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.43</v>
+        <v>-8.360999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,10 +1423,10 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.815999999999999</v>
+        <v>-8.318</v>
       </c>
       <c r="E58" t="n">
-        <v>16.34</v>
+        <v>16.457</v>
       </c>
     </row>
     <row r="59">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.872</v>
+        <v>4.995</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-12.868</v>
+        <v>-12.752</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.742</v>
+        <v>-7.722</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.762</v>
+        <v>-7.886</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.232000000000001</v>
+        <v>-7.93</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.034000000000001</v>
+        <v>5.679</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>16.99</v>
+        <v>16.941</v>
       </c>
     </row>
     <row r="66">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.773999999999999</v>
+        <v>5.357</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.43</v>
+        <v>-7.662999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>17.298</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="71">
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.366</v>
+        <v>-7.392999999999999</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.176</v>
+        <v>-13.006</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,13 +1692,13 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.32</v>
+        <v>-12.566</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.904</v>
+        <v>16.635</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.082</v>
+        <v>16.469</v>
       </c>
     </row>
     <row r="76">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.069999999999999</v>
+        <v>5.601</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.109999999999999</v>
+        <v>5.315</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.7</v>
+        <v>16.796</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>17.442</v>
+        <v>17.027</v>
       </c>
     </row>
     <row r="85">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.614000000000001</v>
+        <v>-8.367000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>16.418</v>
+        <v>16.695</v>
       </c>
     </row>
     <row r="87">
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.058</v>
+        <v>-12.657</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.334</v>
+        <v>-7.922</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.536</v>
+        <v>-13.125</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.568000000000001</v>
+        <v>5.862</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.274</v>
+        <v>-11.58</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.904</v>
+        <v>5.878</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.15</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.664</v>
+        <v>16.884</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-9.071999999999999</v>
+        <v>-8.612</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2131,13 +2131,13 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.69</v>
+        <v>5.084000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.741999999999999</v>
+        <v>-8.667999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.756</v>
+        <v>-7.787999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
